--- a/doc/2013-timetable_exhibitionlist.xlsx
+++ b/doc/2013-timetable_exhibitionlist.xlsx
@@ -189,12 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アプリ開発技術のご紹介
-調整中
-調整中です、しばらくお待ち下さい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>こもれび
 Healing Leaf
 基盤をはっぱの形に仕立てたアクセサリー「こもれび」の販売、展示をいたします</t>
@@ -284,6 +278,12 @@
     <rPh sb="16" eb="18">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソーラーパネル、どこへ置く？
+楽天株式会社
+NASAが公開している地球観測衛星データから日本の雲のデータを抽出し、MongoDBへ格納、晴天率の分布としてマッピングし、太陽光発電パネルの設置判断を支援するアプリを紹介します。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,17 +382,8 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,15 +402,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -815,154 +815,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="66" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>0.5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="66" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="66" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="66" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="66" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="66" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>0.625</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="66" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="66" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="66" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="66" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="66" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D5:D14"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -989,143 +989,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="84" customHeight="1">
+      <c r="A28" s="5">
+        <v>0</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="84" customHeight="1">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="84" customHeight="1">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="84" customHeight="1">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="84" customHeight="1">
+      <c r="A32" s="5">
+        <v>4</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="84" customHeight="1">
+      <c r="A33" s="5">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="84" customHeight="1">
+      <c r="A34" s="5">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="26" spans="1:4" s="14" customFormat="1"/>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="84" customHeight="1">
-      <c r="A28" s="8">
-        <v>0</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="84" customHeight="1">
-      <c r="A29" s="8">
-        <v>1</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="10" t="s">
+      <c r="C34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" ht="84" customHeight="1">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="84" customHeight="1">
-      <c r="A31" s="8">
-        <v>3</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" ht="84" customHeight="1">
-      <c r="A32" s="8">
-        <v>4</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="11" t="s">
+      <c r="D34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="84" customHeight="1">
-      <c r="A33" s="8">
-        <v>5</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="11" t="s">
+    <row r="35" spans="1:4" ht="84" customHeight="1">
+      <c r="A35" s="5">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="84" customHeight="1">
-      <c r="A34" s="8">
-        <v>6</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="84" customHeight="1">
-      <c r="A35" s="8">
-        <v>7</v>
-      </c>
-      <c r="B35" s="11" t="s">
+    <row r="36" spans="1:4" ht="84" customHeight="1">
+      <c r="A36" s="5">
+        <v>8</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="84" customHeight="1">
-      <c r="A36" s="8">
-        <v>8</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11" t="s">
-        <v>28</v>
+      <c r="C36" s="14"/>
+      <c r="D36" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="84" customHeight="1">
-      <c r="A37" s="8">
+      <c r="A37" s="5">
         <v>9</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
